--- a/data/trans_camb/P1419-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.67894891517233</v>
+        <v>-5.451185778638639</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.179864952036374</v>
+        <v>-4.973068846447833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.802374638107723</v>
+        <v>-5.729660083929006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.02807192787518</v>
+        <v>-10.69193993768332</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.445137597306658</v>
+        <v>-9.267592100759792</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.76892287158634</v>
+        <v>-13.63190957774245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.982783466469009</v>
+        <v>-6.853647829413021</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.919457458635311</v>
+        <v>-6.151216101433497</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.624946451863757</v>
+        <v>-8.341551841102875</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.938527653417515</v>
+        <v>-0.6528700254768346</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.07177313839352462</v>
+        <v>0.05842046615388166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.7551225799482267</v>
+        <v>-0.8048065102056554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.8628750381526112</v>
+        <v>-0.357057820542766</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6803842662509458</v>
+        <v>0.9146121657497526</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.643265550236774</v>
+        <v>-5.693372322289216</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.420182309290341</v>
+        <v>-1.415095784733005</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.384733102649413</v>
+        <v>-0.346363845031918</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.852900517688893</v>
+        <v>-3.66611968164889</v>
       </c>
     </row>
     <row r="7">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9455067838435007</v>
+        <v>-0.9418186411495545</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9539634663969695</v>
+        <v>-0.9433098214679205</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7569753117109178</v>
+        <v>-0.7528132874821342</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6604269218997237</v>
+        <v>-0.643847933790142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9194898925831151</v>
+        <v>-0.9222805338703253</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7792296442531048</v>
+        <v>-0.7749387126518645</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6635972777810906</v>
+        <v>-0.6791942808969623</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.9027296415172825</v>
+        <v>-0.8963897127030611</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08474779946127214</v>
+        <v>0.04565124834930707</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.303862445013483</v>
+        <v>0.3604972388958806</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1696754824946836</v>
+        <v>-0.1628611855012403</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.09926488640228816</v>
+        <v>-0.002156434688453147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1246573009548559</v>
+        <v>0.1335594251675229</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6693851199945652</v>
+        <v>-0.6737455501777692</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2347912164082053</v>
+        <v>-0.2311621343745475</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.05089020759699087</v>
+        <v>-0.05800803493664358</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.6768876499289548</v>
+        <v>-0.669269900678939</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.641291836664554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.9517728070989915</v>
+        <v>-0.9517728070989918</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-4.766765917574159</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.950572106250106</v>
+        <v>-4.78851267994269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.038633315857654</v>
+        <v>-5.724057144961623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.533404810529674</v>
+        <v>-3.493823280372475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.12921359493731</v>
+        <v>-8.239146240471266</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.72626214544621</v>
+        <v>-11.46963600190466</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.995545838083395</v>
+        <v>-4.118169924147354</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.872690795496236</v>
+        <v>-5.549682420896699</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.010333842161325</v>
+        <v>-7.697697870461565</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.788877904730903</v>
+        <v>-3.154100895889943</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.5243408865180174</v>
+        <v>-0.2881343925960445</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.028020450505177</v>
+        <v>-1.911337157680167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.340881662191341</v>
+        <v>1.261053232801161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.211895033714582</v>
+        <v>-1.246317646316768</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.461396907556481</v>
+        <v>-5.577387670106681</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.702351160726106</v>
+        <v>2.935419470458193</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.739637546985997</v>
+        <v>-1.54983433051727</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.348300082949913</v>
+        <v>-4.08652321257289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.327804533594792</v>
+        <v>1.303112513628739</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.9410712755781686</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2459802976016655</v>
+        <v>-0.2459802976016656</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4495856341582694</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8950044605595624</v>
+        <v>-0.8794125847862131</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6546896342698968</v>
+        <v>-0.6511915646221653</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6376467295307062</v>
+        <v>-0.6515107775610627</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9041706767380234</v>
+        <v>-0.9037580141187641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3092158256086401</v>
+        <v>-0.3331042631276797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6780272380611018</v>
+        <v>-0.6617352656162104</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9228875436394095</v>
+        <v>-0.9115478728134081</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3247629532730967</v>
+        <v>-0.3540129933588541</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.008871254728948313</v>
+        <v>0.02038339699723899</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.6408237341571364</v>
+        <v>-0.6608565444153041</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5449376516804321</v>
+        <v>0.5581173349377855</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1081894687112259</v>
+        <v>-0.1346685476960799</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5788344413640674</v>
+        <v>-0.5842244918380975</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3084909862035661</v>
+        <v>0.3432276741857262</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2621316139973325</v>
+        <v>-0.2362489143896159</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.6932078485893803</v>
+        <v>-0.6703070013052561</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2230018482511144</v>
+        <v>0.2343263447267188</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.559101538484475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.928439139208718</v>
+        <v>2.928439139208717</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.676590755961696</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.193790117540385</v>
+        <v>-1.292368546514133</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.098005554769507</v>
+        <v>-1.200611370495502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8284189976922849</v>
+        <v>0.8753860367887308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.814357849100503</v>
+        <v>-5.101756368711929</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.084556582166974</v>
+        <v>1.610479252904192</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.288209068560667</v>
+        <v>-1.204438233133416</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.589913185814994</v>
+        <v>-2.637471524253357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7672151299187824</v>
+        <v>0.9297321438539402</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.534808797376494</v>
+        <v>0.7126841069026773</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.910842947143916</v>
+        <v>1.93428779778654</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.255415527674815</v>
+        <v>2.388290860662385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.252032301149147</v>
+        <v>5.185702814560517</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.481371593705302</v>
+        <v>1.647348550675916</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.5031147540649</v>
+        <v>10.42388696844543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.527398281546211</v>
+        <v>5.54910445879147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.247224568825347</v>
+        <v>1.292957313922929</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.974482687326247</v>
+        <v>6.014523555696829</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.634737986627948</v>
+        <v>4.703903519492485</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5715457009129237</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.993618663502142</v>
+        <v>2.993618663502141</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2820708717309253</v>
@@ -1197,7 +1197,7 @@
         <v>0.9297693848158729</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7693784162703146</v>
+        <v>0.7693784162703143</v>
       </c>
     </row>
     <row r="20">
@@ -1208,27 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="inlineStr"/>
-      <c r="D20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-0.7950602350049893</v>
+      </c>
       <c r="E20" s="6" t="n">
-        <v>0.09240023133191656</v>
+        <v>0.159387832949187</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6416677850344841</v>
+        <v>-0.6427186287660317</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09229921995603781</v>
+        <v>0.1519921894953765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1637400399162812</v>
+        <v>-0.1511265316817001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5716057176382761</v>
+        <v>-0.5664707818381145</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.140025296899663</v>
+        <v>0.186628562034937</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.08875996220761866</v>
+        <v>0.1491243930286216</v>
       </c>
     </row>
     <row r="21">
@@ -1241,25 +1243,25 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>14.14805915624216</v>
+        <v>15.28053529745779</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3664595682012448</v>
+        <v>0.4293934316047973</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.31209949364657</v>
+        <v>2.431004693714506</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.4165656198511</v>
+        <v>1.385923837446268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5102018828774638</v>
+        <v>0.5865400154747505</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.168401230544719</v>
+        <v>2.483329382938389</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.81242381057311</v>
+        <v>1.876521180937297</v>
       </c>
     </row>
     <row r="22">
@@ -1289,7 +1291,7 @@
         <v>-4.469017124214412</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-5.575302900604108</v>
+        <v>-5.575302900604105</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3985336290134311</v>
@@ -1298,7 +1300,7 @@
         <v>-2.267941553276522</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.469519924281773</v>
+        <v>-2.469519924281774</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.72626325385418</v>
+        <v>-2.570247616681062</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.996283829080869</v>
+        <v>-1.982206621162754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.483451594652358</v>
+        <v>-1.524167726491358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.93106783251229</v>
+        <v>-4.984554211732358</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.950336603429317</v>
+        <v>-8.861051629542777</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.536258591714205</v>
+        <v>-10.01364882148196</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.024335171369799</v>
+        <v>-3.007993898873103</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.937083951392942</v>
+        <v>-4.919571050784109</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.968655168652752</v>
+        <v>-4.808845322481583</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.176866255280471</v>
+        <v>1.30213754000294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.794918230807037</v>
+        <v>1.960184478251896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.325121861414922</v>
+        <v>3.166803795664981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.238851594119767</v>
+        <v>4.559762801066268</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.1233980544130397</v>
+        <v>-0.552160133501309</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.802491411789781</v>
+        <v>-2.185640244074996</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.063731695410787</v>
+        <v>2.110665412649487</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2138125129709137</v>
+        <v>0.3278116751626952</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.5303071568896864</v>
+        <v>-0.1775498919393929</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1396,7 @@
         <v>-0.3673996218720761</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.4583478023401646</v>
+        <v>-0.4583478023401644</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.05666493625153033</v>
@@ -1403,7 +1405,7 @@
         <v>-0.3224640386226472</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3511251721158886</v>
+        <v>-0.3511251721158887</v>
       </c>
     </row>
     <row r="26">
@@ -1417,28 +1419,28 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.775810024563904</v>
+        <v>-0.7637813741441964</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6535594595862803</v>
+        <v>-0.6995127995343408</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3304728050482614</v>
+        <v>-0.3459459392882729</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6194911269387101</v>
+        <v>-0.6139273362830314</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6304337424227416</v>
+        <v>-0.6352933103133743</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3773792254170579</v>
+        <v>-0.3669026795275059</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5782000471140769</v>
+        <v>-0.5763358413354976</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5676247001796519</v>
+        <v>-0.5514208169187942</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.8656744256101</v>
+        <v>2.800144680861242</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.428202789984072</v>
+        <v>2.807303276978471</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.242671296348779</v>
+        <v>3.76380212999845</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5207144574403024</v>
+        <v>0.4480981726429369</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.001390763025791235</v>
+        <v>-0.01650125434143558</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1771443424177173</v>
+        <v>-0.20827216587696</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3439875816939559</v>
+        <v>0.3641331381887638</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04583521926389473</v>
+        <v>0.07137409466392425</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.07856066458872403</v>
+        <v>-0.01778485642446579</v>
       </c>
     </row>
     <row r="28">
@@ -1523,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.506922247748976</v>
+        <v>-1.477664335819709</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.301970021946248</v>
+        <v>-1.608562472407497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.733936824236691</v>
+        <v>1.726023732686834</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.636786887608546</v>
+        <v>3.275302918072256</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.950114163285672</v>
+        <v>-9.322440610201506</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.529240087911978</v>
+        <v>6.908865298382643</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.075979358467792</v>
+        <v>1.999952332370343</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.744891528685795</v>
+        <v>-4.598538443654677</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.662296809366426</v>
+        <v>5.882127278083105</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.042746477325115</v>
+        <v>4.426212164664376</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.455066959168223</v>
+        <v>3.197905189033214</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.498194193732028</v>
+        <v>8.242103375214048</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.08642440860481</v>
+        <v>15.54679936138484</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.07881975535721379</v>
+        <v>-0.1670952756709517</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.6703217490432</v>
+        <v>17.43429585479651</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.379800333123788</v>
+        <v>8.953543582467939</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6484349616564662</v>
+        <v>0.724340797126685</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.64987003020516</v>
+        <v>11.75977842262267</v>
       </c>
     </row>
     <row r="31">
@@ -1628,29 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8508782767160569</v>
-      </c>
-      <c r="D32" s="6" t="inlineStr"/>
+        <v>-0.8047423919824188</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.8285919063237628</v>
+      </c>
       <c r="E32" s="6" t="n">
-        <v>0.3127443078585572</v>
+        <v>0.2291236032719401</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2853902401885999</v>
+        <v>0.2911985922593441</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.8429269548403481</v>
+        <v>-0.8729120163023549</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5422255338191181</v>
+        <v>0.6082784795088609</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3480151037361574</v>
+        <v>0.3030915090368791</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7706862115491812</v>
+        <v>-0.7412329902392296</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8579437770033025</v>
+        <v>0.9056621938875898</v>
       </c>
     </row>
     <row r="33">
@@ -1663,25 +1667,25 @@
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>16.5535878832119</v>
+        <v>16.83053370455564</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.329597637646714</v>
+        <v>3.244282604653829</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07181814058899026</v>
+        <v>0.01104746782249219</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.563460257016724</v>
+        <v>4.618103922882117</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.085704146053771</v>
+        <v>2.992002910354638</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2739439267663499</v>
+        <v>0.3119746284112803</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>4.223634910069358</v>
+        <v>4.112881797910713</v>
       </c>
     </row>
     <row r="34">
@@ -1702,7 +1706,7 @@
         <v>-0.6668757997043753</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.192778844449012</v>
+        <v>2.192778844449011</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-3.887151051432934</v>
@@ -1720,7 +1724,7 @@
         <v>-3.713601704636563</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.251797692732247</v>
+        <v>2.251797692732248</v>
       </c>
     </row>
     <row r="35">
@@ -1731,31 +1735,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.235494216376138</v>
+        <v>-3.142182523490932</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.360242269544746</v>
+        <v>-3.181576999747491</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6706673532553727</v>
+        <v>-0.3439073503460991</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-8.827369995858225</v>
+        <v>-9.117058894964277</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.43151310369936</v>
+        <v>-11.8130182017082</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.416686064948782</v>
+        <v>-2.297337553771847</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.107801564701782</v>
+        <v>-5.087797038917757</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.324885933660421</v>
+        <v>-6.44846009064471</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.6118190024354943</v>
+        <v>-0.745250510660652</v>
       </c>
     </row>
     <row r="36">
@@ -1766,31 +1770,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.213221858157457</v>
+        <v>1.378729549577693</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.279978008732114</v>
+        <v>1.215894724610538</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.43682311532376</v>
+        <v>4.530597659790833</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.8951742792944272</v>
+        <v>1.144292773585415</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.794494303863254</v>
+        <v>-2.37182991900658</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.45487484761508</v>
+        <v>7.014523001880299</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.5023524936686067</v>
+        <v>0.1362969056107387</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.7924716256446209</v>
+        <v>-0.9201821245788626</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.324855827915418</v>
+        <v>4.586264053882819</v>
       </c>
     </row>
     <row r="37">
@@ -1825,7 +1829,7 @@
         <v>-0.5365555059994354</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.3253484208938759</v>
+        <v>0.3253484208938762</v>
       </c>
     </row>
     <row r="38">
@@ -1835,28 +1839,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
+      <c r="C38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3174142814267132</v>
+        <v>-0.3680411730227461</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.6107264724885316</v>
+        <v>-0.6113633351698032</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7722466794998371</v>
+        <v>-0.8076188710780304</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1642642942302902</v>
+        <v>-0.151959219311332</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5912897460218093</v>
+        <v>-0.6042916786016539</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7462928108542727</v>
+        <v>-0.7437603657113713</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.06989387909931813</v>
+        <v>-0.088481375360806</v>
       </c>
     </row>
     <row r="39">
@@ -1866,28 +1872,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
+      <c r="C39" s="6" t="n">
+        <v>3.584988438750784</v>
+      </c>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>8.373343212447955</v>
+        <v>8.0512475630726</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.111443562067888</v>
+        <v>0.1401522062637882</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1380244732091571</v>
+        <v>-0.2268970583970804</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.820037371771669</v>
+        <v>0.7853228306851477</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1298844744817182</v>
+        <v>0.05821349537429184</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1087386431413594</v>
+        <v>-0.1403560089596128</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.047773704653891</v>
+        <v>0.8718485015237712</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1934,7 @@
         <v>-0.9785104304231789</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>10.34691533697068</v>
+        <v>10.34691533697067</v>
       </c>
     </row>
     <row r="41">
@@ -1937,31 +1945,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.079091082452614</v>
+        <v>-2.114567418978917</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.8780681373042278</v>
+        <v>-0.8047248844234328</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.713602034429554</v>
+        <v>4.880432995489529</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.212339044946991</v>
+        <v>-1.632838216707297</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.293531006863512</v>
+        <v>-5.343672813062601</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>10.03781636764382</v>
+        <v>10.11519958601041</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.9747163267819887</v>
+        <v>-1.090382479274578</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.614453923420497</v>
+        <v>-2.740406695288826</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>8.399332113456216</v>
+        <v>8.465912559539394</v>
       </c>
     </row>
     <row r="42">
@@ -1972,31 +1980,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.586769137749001</v>
+        <v>0.6392574708377657</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.050327632395303</v>
+        <v>2.424206496473715</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.44399249923203</v>
+        <v>9.206857202395696</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.209750334143652</v>
+        <v>4.867629962246991</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.3685489962694972</v>
+        <v>0.5063974244143458</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.79549921619557</v>
+        <v>16.93843267247336</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.438724373062957</v>
+        <v>2.572715526146577</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.6131155413970264</v>
+        <v>0.6738828062525278</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.64784187943751</v>
+        <v>12.41871702053879</v>
       </c>
     </row>
     <row r="43">
@@ -2042,31 +2050,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8741185152317184</v>
+        <v>-0.8635308596433243</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.4575244679711501</v>
+        <v>-0.3922184164575269</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.6845150149412</v>
+        <v>1.756004948199225</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1426871236074755</v>
+        <v>-0.1748173407073016</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5507631782265776</v>
+        <v>-0.5431016535980229</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9936791045355237</v>
+        <v>0.9926703379984215</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1716944243344803</v>
+        <v>-0.1772547107525945</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4454345281349672</v>
+        <v>-0.4667121649867768</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.416071431973616</v>
+        <v>1.343203589942338</v>
       </c>
     </row>
     <row r="45">
@@ -2077,31 +2085,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.8339152435467396</v>
+        <v>0.9062032926638303</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.38348983733209</v>
+        <v>2.966340502344252</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>11.00275839757646</v>
+        <v>11.07018841973592</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7882443353022847</v>
+        <v>0.7287683522531525</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08296491225836686</v>
+        <v>0.1269986320257087</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.546572956054401</v>
+        <v>2.527623681764096</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6121236499277106</v>
+        <v>0.6362796202141906</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1499972710640885</v>
+        <v>0.1650343969226879</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.160749458427448</v>
+        <v>2.95776527828282</v>
       </c>
     </row>
     <row r="46">
@@ -2151,31 +2159,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-6.701498378100563</v>
+        <v>-6.682199064164555</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.898909578549234</v>
+        <v>-6.021664135770407</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-6.2885242714925</v>
+        <v>-6.227295099637593</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-10.28863590340268</v>
+        <v>-10.47282386198362</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-11.30730874285985</v>
+        <v>-10.97978630256902</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-13.15654089929351</v>
+        <v>-13.19791460729266</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.877578798629958</v>
+        <v>-7.820733169523081</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.895367378334667</v>
+        <v>-7.89014841843403</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-9.100802242880931</v>
+        <v>-9.090738753186155</v>
       </c>
     </row>
     <row r="48">
@@ -2186,31 +2194,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-2.959422106402155</v>
+        <v>-2.924417800115015</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.843690788946761</v>
+        <v>-2.044000290546076</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.491636398858839</v>
+        <v>-2.532662437994984</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-3.869192644440595</v>
+        <v>-4.131998726184919</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-4.951471710198935</v>
+        <v>-4.488002962744994</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-7.589274887931957</v>
+        <v>-7.493297393465046</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-4.114009156663713</v>
+        <v>-4.157576861435516</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-4.066613392142213</v>
+        <v>-4.023479054427842</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-5.628751269377797</v>
+        <v>-5.621459784062457</v>
       </c>
     </row>
     <row r="49">
@@ -2256,31 +2264,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.9177769169849763</v>
+        <v>-0.9223369137788817</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8168211236366775</v>
+        <v>-0.8213142280243765</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8755056684595429</v>
+        <v>-0.867760319724265</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.6235369487457916</v>
+        <v>-0.6240570933762982</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6672728210537076</v>
+        <v>-0.6574278447591654</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.7774026959246585</v>
+        <v>-0.7803923683794389</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6802211376046171</v>
+        <v>-0.6798784332172186</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6821884548262001</v>
+        <v>-0.6809077542682319</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7805075488714602</v>
+        <v>-0.7822884219121436</v>
       </c>
     </row>
     <row r="51">
@@ -2291,31 +2299,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.5813788582738402</v>
+        <v>-0.6265775724373222</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.3778884837182515</v>
+        <v>-0.4085568451882493</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5099627967949769</v>
+        <v>-0.5277544581344837</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2876322155307897</v>
+        <v>-0.3184423771053764</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.3634102410638021</v>
+        <v>-0.3297871544236065</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.5729875500096892</v>
+        <v>-0.5750009200079935</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.4390125705561941</v>
+        <v>-0.4283254918907693</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.428537135908189</v>
+        <v>-0.4249559499377685</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.6085900743648913</v>
+        <v>-0.6095388598020407</v>
       </c>
     </row>
     <row r="52">
@@ -2365,31 +2373,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.527587816629157</v>
+        <v>-2.52468801620502</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.155778052539545</v>
+        <v>-2.22595931141755</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.01239659443149592</v>
+        <v>-0.07118749917454734</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-3.738876160615322</v>
+        <v>-3.734544431760404</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-6.04281308930017</v>
+        <v>-6.060714210234269</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.231163623778224</v>
+        <v>-1.252817132381949</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.925550840353409</v>
+        <v>-2.953979540245894</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.892636491694053</v>
+        <v>-4.003264812290679</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.3676131381064228</v>
+        <v>-0.3005726771643616</v>
       </c>
     </row>
     <row r="54">
@@ -2400,31 +2408,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-1.191126460557423</v>
+        <v>-1.130617632426209</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.7598649359605529</v>
+        <v>-0.753206843503302</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.649712180361088</v>
+        <v>1.669505395327809</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>-1.00734709570485</v>
+        <v>-1.070189236729942</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-3.315630836522176</v>
+        <v>-3.309471427706245</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.441695396372577</v>
+        <v>1.378446010650635</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-1.291457881565261</v>
+        <v>-1.252721663397872</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-2.310518317493971</v>
+        <v>-2.254902646776945</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.281749489979912</v>
+        <v>1.326906707128319</v>
       </c>
     </row>
     <row r="55">
@@ -2470,31 +2478,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.7317556553784337</v>
+        <v>-0.7243888849881371</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6263717073976092</v>
+        <v>-0.6380870230138591</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.000836569740956984</v>
+        <v>-0.02080356051506261</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.3267502742041751</v>
+        <v>-0.3253467052212794</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.5226471819835325</v>
+        <v>-0.5252277872799246</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.104718519466622</v>
+        <v>-0.1084814372530886</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.3958494449615157</v>
+        <v>-0.3935948418493848</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.5294286516116391</v>
+        <v>-0.5317950215423793</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.04881214931494856</v>
+        <v>-0.03945149973380217</v>
       </c>
     </row>
     <row r="57">
@@ -2505,31 +2513,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.428600650187507</v>
+        <v>-0.4131252218536505</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.2971868758330199</v>
+        <v>-0.2867794185363963</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6163763154692662</v>
+        <v>0.6355562766902974</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>-0.09786539863028054</v>
+        <v>-0.105315644807364</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.3267357284863705</v>
+        <v>-0.3302269134349683</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1440806623125987</v>
+        <v>0.1381166794122604</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.1985886349533669</v>
+        <v>-0.1905582528429933</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.3523218932473206</v>
+        <v>-0.3438764821722898</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1994637047231822</v>
+        <v>0.2072200532480188</v>
       </c>
     </row>
     <row r="58">
